--- a/amortecomentoExpon/validacao.xlsx
+++ b/amortecomentoExpon/validacao.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Month</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month_num</t>
   </si>
 </sst>
 </file>
@@ -359,140 +356,101 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1230768000</v>
+        <v>17897</v>
       </c>
       <c r="B2" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24109</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1233446400</v>
+        <v>17928</v>
       </c>
       <c r="B3" t="n">
-        <v>76.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>24110</v>
+        <v>79.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1235865600</v>
+        <v>17956</v>
       </c>
       <c r="B4" t="n">
-        <v>88.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>24111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1238544000</v>
+        <v>17987</v>
       </c>
       <c r="B5" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>24112</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1241136000</v>
+        <v>18017</v>
       </c>
       <c r="B6" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1243814400</v>
+        <v>18048</v>
       </c>
       <c r="B7" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24114</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1246406400</v>
+        <v>18078</v>
       </c>
       <c r="B8" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24115</v>
+        <v>93.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1249084800</v>
+        <v>18109</v>
       </c>
       <c r="B9" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24116</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1251763200</v>
+        <v>18140</v>
       </c>
       <c r="B10" t="n">
-        <v>99.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24117</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1254355200</v>
+        <v>18170</v>
       </c>
       <c r="B11" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1257033600</v>
+        <v>18201</v>
       </c>
       <c r="B12" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1259625600</v>
+        <v>18231</v>
       </c>
       <c r="B13" t="n">
-        <v>94.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24120</v>
+        <v>76.9</v>
       </c>
     </row>
   </sheetData>
